--- a/Datasets/Separated datasets/Asian Country ~ Vietnam.xlsx
+++ b/Datasets/Separated datasets/Asian Country ~ Vietnam.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\Separated datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F5F63-9BEE-4771-9881-C595FA4B9880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="66" windowWidth="15990" windowHeight="6456"/>
+    <workbookView xWindow="2829" yWindow="1886" windowWidth="23982" windowHeight="13594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Confirmed</t>
   </si>
@@ -27,11 +33,14 @@
   <si>
     <t>Recovered</t>
   </si>
+  <si>
+    <t>Infected</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -513,12 +522,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -575,6 +581,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -622,7 +631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,9 +664,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,6 +716,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -865,20 +908,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D337"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="E337" sqref="E337"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:XFD186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="20.578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.53515625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="20.53515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -891,8 +934,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>44013</v>
       </c>
@@ -905,8 +951,12 @@
       <c r="D2" s="1">
         <v>336</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2">
+        <f>B2-C2-D2</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>44014</v>
       </c>
@@ -919,8 +969,12 @@
       <c r="D3" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">B3-C3-D3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>44015</v>
       </c>
@@ -933,8 +987,12 @@
       <c r="D4" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>44016</v>
       </c>
@@ -947,8 +1005,12 @@
       <c r="D5" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>44017</v>
       </c>
@@ -961,8 +1023,12 @@
       <c r="D6" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>44018</v>
       </c>
@@ -975,8 +1041,12 @@
       <c r="D7" s="1">
         <v>341</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>44019</v>
       </c>
@@ -989,8 +1059,12 @@
       <c r="D8" s="1">
         <v>342</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>44020</v>
       </c>
@@ -1003,8 +1077,12 @@
       <c r="D9" s="1">
         <v>347</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>44021</v>
       </c>
@@ -1017,8 +1095,12 @@
       <c r="D10" s="1">
         <v>347</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>44022</v>
       </c>
@@ -1031,8 +1113,12 @@
       <c r="D11" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>44023</v>
       </c>
@@ -1045,8 +1131,12 @@
       <c r="D12" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>44024</v>
       </c>
@@ -1059,8 +1149,12 @@
       <c r="D13" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>44025</v>
       </c>
@@ -1073,8 +1167,12 @@
       <c r="D14" s="1">
         <v>352</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>44026</v>
       </c>
@@ -1087,8 +1185,12 @@
       <c r="D15" s="1">
         <v>352</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>44027</v>
       </c>
@@ -1101,8 +1203,12 @@
       <c r="D16" s="1">
         <v>353</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>44028</v>
       </c>
@@ -1115,8 +1221,12 @@
       <c r="D17" s="1">
         <v>356</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>44029</v>
       </c>
@@ -1129,8 +1239,12 @@
       <c r="D18" s="1">
         <v>356</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
@@ -1143,8 +1257,12 @@
       <c r="D19" s="1">
         <v>357</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>44031</v>
       </c>
@@ -1157,8 +1275,12 @@
       <c r="D20" s="1">
         <v>357</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>44032</v>
       </c>
@@ -1171,8 +1293,12 @@
       <c r="D21" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>44033</v>
       </c>
@@ -1185,8 +1311,12 @@
       <c r="D22" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>44034</v>
       </c>
@@ -1199,8 +1329,12 @@
       <c r="D23" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>44035</v>
       </c>
@@ -1213,8 +1347,12 @@
       <c r="D24" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>44036</v>
       </c>
@@ -1227,8 +1365,12 @@
       <c r="D25" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>44037</v>
       </c>
@@ -1241,8 +1383,12 @@
       <c r="D26" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>44038</v>
       </c>
@@ -1255,8 +1401,12 @@
       <c r="D27" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>44039</v>
       </c>
@@ -1269,8 +1419,12 @@
       <c r="D28" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>44040</v>
       </c>
@@ -1283,8 +1437,12 @@
       <c r="D29" s="1">
         <v>369</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>44041</v>
       </c>
@@ -1297,8 +1455,12 @@
       <c r="D30" s="1">
         <v>369</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>44042</v>
       </c>
@@ -1311,8 +1473,12 @@
       <c r="D31" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>44043</v>
       </c>
@@ -1325,8 +1491,12 @@
       <c r="D32" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>44044</v>
       </c>
@@ -1339,8 +1509,12 @@
       <c r="D33" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>44045</v>
       </c>
@@ -1353,8 +1527,12 @@
       <c r="D34" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>44046</v>
       </c>
@@ -1367,8 +1545,12 @@
       <c r="D35" s="1">
         <v>374</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>44047</v>
       </c>
@@ -1381,8 +1563,12 @@
       <c r="D36" s="1">
         <v>378</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>44048</v>
       </c>
@@ -1395,8 +1581,12 @@
       <c r="D37" s="1">
         <v>381</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>44049</v>
       </c>
@@ -1409,8 +1599,12 @@
       <c r="D38" s="1">
         <v>392</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>44050</v>
       </c>
@@ -1423,8 +1617,12 @@
       <c r="D39" s="1">
         <v>395</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>44051</v>
       </c>
@@ -1437,8 +1635,12 @@
       <c r="D40" s="1">
         <v>395</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>44052</v>
       </c>
@@ -1451,8 +1653,12 @@
       <c r="D41" s="1">
         <v>395</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>44053</v>
       </c>
@@ -1465,8 +1671,12 @@
       <c r="D42" s="1">
         <v>399</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>44054</v>
       </c>
@@ -1479,8 +1689,12 @@
       <c r="D43" s="1">
         <v>451</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>44055</v>
       </c>
@@ -1493,8 +1707,12 @@
       <c r="D44" s="1">
         <v>409</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44056</v>
       </c>
@@ -1507,8 +1725,12 @@
       <c r="D45" s="1">
         <v>425</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44057</v>
       </c>
@@ -1521,8 +1743,12 @@
       <c r="D46" s="1">
         <v>437</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>44058</v>
       </c>
@@ -1535,8 +1761,12 @@
       <c r="D47" s="1">
         <v>447</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>44059</v>
       </c>
@@ -1549,8 +1779,12 @@
       <c r="D48" s="1">
         <v>456</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>44060</v>
       </c>
@@ -1563,8 +1797,12 @@
       <c r="D49" s="1">
         <v>467</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>44061</v>
       </c>
@@ -1577,8 +1815,12 @@
       <c r="D50" s="1">
         <v>526</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>44062</v>
       </c>
@@ -1591,8 +1833,12 @@
       <c r="D51" s="1">
         <v>533</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>44063</v>
       </c>
@@ -1605,8 +1851,12 @@
       <c r="D52" s="1">
         <v>542</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>44064</v>
       </c>
@@ -1619,8 +1869,12 @@
       <c r="D53" s="1">
         <v>545</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>44065</v>
       </c>
@@ -1633,8 +1887,12 @@
       <c r="D54" s="1">
         <v>563</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>44066</v>
       </c>
@@ -1647,8 +1905,12 @@
       <c r="D55" s="1">
         <v>568</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>44067</v>
       </c>
@@ -1661,8 +1923,12 @@
       <c r="D56" s="1">
         <v>587</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>44068</v>
       </c>
@@ -1675,8 +1941,12 @@
       <c r="D57" s="1">
         <v>592</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>44069</v>
       </c>
@@ -1689,8 +1959,12 @@
       <c r="D58" s="1">
         <v>632</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>44070</v>
       </c>
@@ -1703,8 +1977,12 @@
       <c r="D59" s="1">
         <v>637</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>44071</v>
       </c>
@@ -1717,8 +1995,12 @@
       <c r="D60" s="1">
         <v>663</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>44072</v>
       </c>
@@ -1731,8 +2013,12 @@
       <c r="D61" s="1">
         <v>677</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>44073</v>
       </c>
@@ -1745,8 +2031,12 @@
       <c r="D62" s="1">
         <v>695</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>44074</v>
       </c>
@@ -1759,8 +2049,12 @@
       <c r="D63" s="1">
         <v>707</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>44075</v>
       </c>
@@ -1773,8 +2067,12 @@
       <c r="D64" s="1">
         <v>735</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>44076</v>
       </c>
@@ -1787,8 +2085,12 @@
       <c r="D65" s="1">
         <v>746</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>44077</v>
       </c>
@@ -1801,8 +2103,12 @@
       <c r="D66" s="1">
         <v>755</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>44078</v>
       </c>
@@ -1815,8 +2121,12 @@
       <c r="D67" s="1">
         <v>772</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">B67-C67-D67</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>44079</v>
       </c>
@@ -1829,8 +2139,12 @@
       <c r="D68" s="1">
         <v>805</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>44080</v>
       </c>
@@ -1843,8 +2157,12 @@
       <c r="D69" s="1">
         <v>815</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>44081</v>
       </c>
@@ -1857,8 +2175,12 @@
       <c r="D70" s="1">
         <v>853</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>44082</v>
       </c>
@@ -1871,8 +2193,12 @@
       <c r="D71" s="1">
         <v>868</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>44083</v>
       </c>
@@ -1885,8 +2211,12 @@
       <c r="D72" s="1">
         <v>890</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>44084</v>
       </c>
@@ -1899,8 +2229,12 @@
       <c r="D73" s="1">
         <v>893</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>44085</v>
       </c>
@@ -1913,8 +2247,12 @@
       <c r="D74" s="1">
         <v>902</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>44086</v>
       </c>
@@ -1927,8 +2265,12 @@
       <c r="D75" s="1">
         <v>910</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>44087</v>
       </c>
@@ -1941,8 +2283,12 @@
       <c r="D76" s="1">
         <v>918</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>44088</v>
       </c>
@@ -1955,8 +2301,12 @@
       <c r="D77" s="1">
         <v>926</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>44089</v>
       </c>
@@ -1969,8 +2319,12 @@
       <c r="D78" s="1">
         <v>931</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>44090</v>
       </c>
@@ -1983,8 +2337,12 @@
       <c r="D79" s="1">
         <v>936</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>44091</v>
       </c>
@@ -1997,8 +2355,12 @@
       <c r="D80" s="1">
         <v>940</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>44092</v>
       </c>
@@ -2011,8 +2373,12 @@
       <c r="D81" s="1">
         <v>941</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>44093</v>
       </c>
@@ -2025,8 +2391,12 @@
       <c r="D82" s="1">
         <v>942</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>44094</v>
       </c>
@@ -2039,8 +2409,12 @@
       <c r="D83" s="1">
         <v>942</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>44095</v>
       </c>
@@ -2053,8 +2427,12 @@
       <c r="D84" s="1">
         <v>947</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>44096</v>
       </c>
@@ -2067,8 +2445,12 @@
       <c r="D85" s="1">
         <v>957</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>44097</v>
       </c>
@@ -2081,8 +2463,12 @@
       <c r="D86" s="1">
         <v>991</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>44098</v>
       </c>
@@ -2095,8 +2481,12 @@
       <c r="D87" s="1">
         <v>991</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>44099</v>
       </c>
@@ -2109,8 +2499,12 @@
       <c r="D88" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>44100</v>
       </c>
@@ -2123,8 +2517,12 @@
       <c r="D89" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>44101</v>
       </c>
@@ -2137,8 +2535,12 @@
       <c r="D90" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>44102</v>
       </c>
@@ -2151,8 +2553,12 @@
       <c r="D91" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>44103</v>
       </c>
@@ -2165,8 +2571,12 @@
       <c r="D92" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>44104</v>
       </c>
@@ -2179,8 +2589,12 @@
       <c r="D93" s="1">
         <v>1010</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>44105</v>
       </c>
@@ -2193,8 +2607,12 @@
       <c r="D94" s="1">
         <v>1010</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>44106</v>
       </c>
@@ -2207,8 +2625,12 @@
       <c r="D95" s="1">
         <v>1020</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>44107</v>
       </c>
@@ -2221,8 +2643,12 @@
       <c r="D96" s="1">
         <v>1020</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>44108</v>
       </c>
@@ -2235,8 +2661,12 @@
       <c r="D97" s="1">
         <v>1020</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>44109</v>
       </c>
@@ -2249,8 +2679,12 @@
       <c r="D98" s="1">
         <v>1022</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>44110</v>
       </c>
@@ -2263,8 +2697,12 @@
       <c r="D99" s="1">
         <v>1023</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>44111</v>
       </c>
@@ -2277,8 +2715,12 @@
       <c r="D100" s="1">
         <v>1023</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>44112</v>
       </c>
@@ -2291,8 +2733,12 @@
       <c r="D101" s="1">
         <v>1023</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>44113</v>
       </c>
@@ -2305,8 +2751,12 @@
       <c r="D102" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>44114</v>
       </c>
@@ -2319,8 +2769,12 @@
       <c r="D103" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>44115</v>
       </c>
@@ -2333,8 +2787,12 @@
       <c r="D104" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>44116</v>
       </c>
@@ -2347,8 +2805,12 @@
       <c r="D105" s="1">
         <v>1025</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>44117</v>
       </c>
@@ -2361,8 +2823,12 @@
       <c r="D106" s="1">
         <v>1025</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>44118</v>
       </c>
@@ -2375,8 +2841,12 @@
       <c r="D107" s="1">
         <v>1029</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>44119</v>
       </c>
@@ -2389,8 +2859,12 @@
       <c r="D108" s="1">
         <v>1030</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>44120</v>
       </c>
@@ -2403,8 +2877,12 @@
       <c r="D109" s="1">
         <v>1031</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>44121</v>
       </c>
@@ -2417,8 +2895,12 @@
       <c r="D110" s="1">
         <v>1031</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>44122</v>
       </c>
@@ -2431,8 +2913,12 @@
       <c r="D111" s="1">
         <v>1031</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>44123</v>
       </c>
@@ -2445,8 +2931,12 @@
       <c r="D112" s="1">
         <v>1046</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>44124</v>
       </c>
@@ -2459,8 +2949,12 @@
       <c r="D113" s="1">
         <v>1046</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>44125</v>
       </c>
@@ -2473,8 +2967,12 @@
       <c r="D114" s="1">
         <v>1046</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>44126</v>
       </c>
@@ -2487,8 +2985,12 @@
       <c r="D115" s="1">
         <v>1049</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>44127</v>
       </c>
@@ -2501,8 +3003,12 @@
       <c r="D116" s="1">
         <v>1049</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>44128</v>
       </c>
@@ -2515,8 +3021,12 @@
       <c r="D117" s="1">
         <v>1051</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>44129</v>
       </c>
@@ -2529,8 +3039,12 @@
       <c r="D118" s="1">
         <v>1057</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>44130</v>
       </c>
@@ -2543,8 +3057,12 @@
       <c r="D119" s="1">
         <v>1061</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>44131</v>
       </c>
@@ -2557,8 +3075,12 @@
       <c r="D120" s="1">
         <v>1062</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>44132</v>
       </c>
@@ -2571,8 +3093,12 @@
       <c r="D121" s="1">
         <v>1062</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>44133</v>
       </c>
@@ -2585,8 +3111,12 @@
       <c r="D122" s="1">
         <v>1062</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>44134</v>
       </c>
@@ -2599,8 +3129,12 @@
       <c r="D123" s="1">
         <v>1062</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>44135</v>
       </c>
@@ -2613,8 +3147,12 @@
       <c r="D124" s="1">
         <v>1062</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>44136</v>
       </c>
@@ -2627,8 +3165,12 @@
       <c r="D125" s="1">
         <v>1063</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>44137</v>
       </c>
@@ -2641,8 +3183,12 @@
       <c r="D126" s="1">
         <v>1065</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>44138</v>
       </c>
@@ -2655,8 +3201,12 @@
       <c r="D127" s="1">
         <v>1069</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>44139</v>
       </c>
@@ -2669,8 +3219,12 @@
       <c r="D128" s="1">
         <v>1069</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>44140</v>
       </c>
@@ -2683,8 +3237,12 @@
       <c r="D129" s="1">
         <v>1069</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>44141</v>
       </c>
@@ -2697,8 +3255,12 @@
       <c r="D130" s="1">
         <v>1070</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>44142</v>
       </c>
@@ -2711,8 +3273,12 @@
       <c r="D131" s="1">
         <v>1070</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131">
+        <f t="shared" ref="E131:E193" si="2">B131-C131-D131</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>44143</v>
       </c>
@@ -2725,8 +3291,12 @@
       <c r="D132" s="1">
         <v>1070</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>44144</v>
       </c>
@@ -2739,8 +3309,12 @@
       <c r="D133" s="1">
         <v>1087</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>44145</v>
       </c>
@@ -2753,8 +3327,12 @@
       <c r="D134" s="1">
         <v>1087</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>44146</v>
       </c>
@@ -2767,8 +3345,12 @@
       <c r="D135" s="1">
         <v>1087</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>44147</v>
       </c>
@@ -2781,8 +3363,12 @@
       <c r="D136" s="1">
         <v>1093</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>44148</v>
       </c>
@@ -2795,8 +3381,12 @@
       <c r="D137" s="1">
         <v>1101</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>44149</v>
       </c>
@@ -2809,8 +3399,12 @@
       <c r="D138" s="1">
         <v>1103</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>44150</v>
       </c>
@@ -2823,8 +3417,12 @@
       <c r="D139" s="1">
         <v>1103</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>44151</v>
       </c>
@@ -2837,8 +3435,12 @@
       <c r="D140" s="1">
         <v>1124</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>44152</v>
       </c>
@@ -2851,8 +3453,12 @@
       <c r="D141" s="1">
         <v>1124</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>44153</v>
       </c>
@@ -2865,8 +3471,12 @@
       <c r="D142" s="1">
         <v>1124</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>44154</v>
       </c>
@@ -2879,8 +3489,12 @@
       <c r="D143" s="1">
         <v>1142</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>44155</v>
       </c>
@@ -2893,8 +3507,12 @@
       <c r="D144" s="1">
         <v>1142</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>44156</v>
       </c>
@@ -2907,8 +3525,12 @@
       <c r="D145" s="1">
         <v>1142</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>44157</v>
       </c>
@@ -2921,8 +3543,12 @@
       <c r="D146" s="1">
         <v>1142</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>44158</v>
       </c>
@@ -2935,8 +3561,12 @@
       <c r="D147" s="1">
         <v>1151</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>44159</v>
       </c>
@@ -2949,8 +3579,12 @@
       <c r="D148" s="1">
         <v>1153</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>44160</v>
       </c>
@@ -2963,8 +3597,12 @@
       <c r="D149" s="1">
         <v>1153</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>44161</v>
       </c>
@@ -2977,8 +3615,12 @@
       <c r="D150" s="1">
         <v>1166</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>44162</v>
       </c>
@@ -2991,8 +3633,12 @@
       <c r="D151" s="1">
         <v>1170</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>44163</v>
       </c>
@@ -3005,8 +3651,12 @@
       <c r="D152" s="1">
         <v>1179</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>44164</v>
       </c>
@@ -3019,8 +3669,12 @@
       <c r="D153" s="1">
         <v>1179</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>44165</v>
       </c>
@@ -3033,8 +3687,12 @@
       <c r="D154" s="1">
         <v>1179</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>44166</v>
       </c>
@@ -3047,8 +3705,12 @@
       <c r="D155" s="1">
         <v>1195</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>44167</v>
       </c>
@@ -3061,8 +3723,12 @@
       <c r="D156" s="1">
         <v>1201</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>44168</v>
       </c>
@@ -3075,8 +3741,12 @@
       <c r="D157" s="1">
         <v>1209</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>44169</v>
       </c>
@@ -3089,8 +3759,12 @@
       <c r="D158" s="1">
         <v>1220</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>44170</v>
       </c>
@@ -3103,8 +3777,12 @@
       <c r="D159" s="1">
         <v>1220</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>44171</v>
       </c>
@@ -3117,8 +3795,12 @@
       <c r="D160" s="1">
         <v>1220</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>44172</v>
       </c>
@@ -3131,8 +3813,12 @@
       <c r="D161" s="1">
         <v>1224</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>44173</v>
       </c>
@@ -3145,8 +3831,12 @@
       <c r="D162" s="1">
         <v>1224</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>44174</v>
       </c>
@@ -3159,8 +3849,12 @@
       <c r="D163" s="1">
         <v>1225</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>44175</v>
       </c>
@@ -3173,8 +3867,12 @@
       <c r="D164" s="1">
         <v>1225</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>44176</v>
       </c>
@@ -3187,8 +3885,12 @@
       <c r="D165" s="1">
         <v>1238</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>44177</v>
       </c>
@@ -3201,8 +3903,12 @@
       <c r="D166" s="1">
         <v>1238</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>44178</v>
       </c>
@@ -3215,8 +3921,12 @@
       <c r="D167" s="1">
         <v>1241</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>44179</v>
       </c>
@@ -3229,8 +3939,12 @@
       <c r="D168" s="1">
         <v>1246</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>44180</v>
       </c>
@@ -3243,8 +3957,12 @@
       <c r="D169" s="1">
         <v>1252</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>44181</v>
       </c>
@@ -3257,8 +3975,12 @@
       <c r="D170" s="1">
         <v>1252</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>44182</v>
       </c>
@@ -3271,8 +3993,12 @@
       <c r="D171" s="1">
         <v>1263</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>44183</v>
       </c>
@@ -3285,8 +4011,12 @@
       <c r="D172" s="1">
         <v>1266</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>44184</v>
       </c>
@@ -3299,8 +4029,12 @@
       <c r="D173" s="1">
         <v>1269</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>44185</v>
       </c>
@@ -3313,8 +4047,12 @@
       <c r="D174" s="1">
         <v>1269</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>44186</v>
       </c>
@@ -3327,8 +4065,12 @@
       <c r="D175" s="1">
         <v>1269</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>44187</v>
       </c>
@@ -3341,8 +4083,12 @@
       <c r="D176" s="1">
         <v>1281</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>44188</v>
       </c>
@@ -3355,8 +4101,12 @@
       <c r="D177" s="1">
         <v>1281</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>44189</v>
       </c>
@@ -3369,8 +4119,12 @@
       <c r="D178" s="1">
         <v>1281</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E178">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>44190</v>
       </c>
@@ -3383,8 +4137,12 @@
       <c r="D179" s="1">
         <v>1303</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>44191</v>
       </c>
@@ -3397,8 +4155,12 @@
       <c r="D180" s="1">
         <v>1303</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>44192</v>
       </c>
@@ -3411,8 +4173,12 @@
       <c r="D181" s="1">
         <v>1303</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>44193</v>
       </c>
@@ -3425,8 +4191,12 @@
       <c r="D182" s="1">
         <v>1303</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E182">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>44194</v>
       </c>
@@ -3439,8 +4209,12 @@
       <c r="D183" s="1">
         <v>1319</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>44195</v>
       </c>
@@ -3453,8 +4227,12 @@
       <c r="D184" s="1">
         <v>1323</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E184">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>44196</v>
       </c>
@@ -3467,47 +4245,71 @@
       <c r="D185" s="1">
         <v>1325</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A186" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1474</v>
+      </c>
+      <c r="C186" s="1">
+        <v>35</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1325</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B187" s="1">
-        <v>1474</v>
+        <v>1482</v>
       </c>
       <c r="C187" s="1">
         <v>35</v>
       </c>
       <c r="D187" s="1">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1337</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B188" s="1">
-        <v>1482</v>
+        <v>1494</v>
       </c>
       <c r="C188" s="1">
         <v>35</v>
       </c>
       <c r="D188" s="1">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1339</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B189" s="1">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="C189" s="1">
         <v>35</v>
@@ -3515,13 +4317,17 @@
       <c r="D189" s="1">
         <v>1339</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B190" s="1">
-        <v>1497</v>
+        <v>1504</v>
       </c>
       <c r="C190" s="1">
         <v>35</v>
@@ -3529,27 +4335,35 @@
       <c r="D190" s="1">
         <v>1339</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E190">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B191" s="1">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C191" s="1">
         <v>35</v>
       </c>
       <c r="D191" s="1">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1353</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B192" s="1">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="C192" s="1">
         <v>35</v>
@@ -3557,41 +4371,53 @@
       <c r="D192" s="1">
         <v>1353</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E192">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B193" s="1">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="C193" s="1">
         <v>35</v>
       </c>
       <c r="D193" s="1">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1357</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B194" s="1">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C194" s="1">
         <v>35</v>
       </c>
       <c r="D194" s="1">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1361</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ref="E194:E257" si="3">B194-C194-D194</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B195" s="1">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C195" s="1">
         <v>35</v>
@@ -3599,13 +4425,17 @@
       <c r="D195" s="1">
         <v>1361</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E195">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B196" s="1">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C196" s="1">
         <v>35</v>
@@ -3613,13 +4443,17 @@
       <c r="D196" s="1">
         <v>1361</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B197" s="1">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="C197" s="1">
         <v>35</v>
@@ -3627,27 +4461,35 @@
       <c r="D197" s="1">
         <v>1361</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E197">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B198" s="1">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C198" s="1">
         <v>35</v>
       </c>
       <c r="D198" s="1">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1369</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B199" s="1">
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="C199" s="1">
         <v>35</v>
@@ -3655,27 +4497,35 @@
       <c r="D199" s="1">
         <v>1369</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E199">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B200" s="1">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="C200" s="1">
         <v>35</v>
       </c>
       <c r="D200" s="1">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1380</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B201" s="1">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C201" s="1">
         <v>35</v>
@@ -3683,10 +4533,14 @@
       <c r="D201" s="1">
         <v>1380</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E201">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B202" s="1">
         <v>1537</v>
@@ -3697,27 +4551,35 @@
       <c r="D202" s="1">
         <v>1380</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B203" s="1">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C203" s="1">
         <v>35</v>
       </c>
       <c r="D203" s="1">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1402</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B204" s="1">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C204" s="1">
         <v>35</v>
@@ -3725,41 +4587,53 @@
       <c r="D204" s="1">
         <v>1402</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E204">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B205" s="1">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="C205" s="1">
         <v>35</v>
       </c>
       <c r="D205" s="1">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1406</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B206" s="1">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="C206" s="1">
         <v>35</v>
       </c>
       <c r="D206" s="1">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1411</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B207" s="1">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="C207" s="1">
         <v>35</v>
@@ -3767,10 +4641,14 @@
       <c r="D207" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E207">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B208" s="1">
         <v>1548</v>
@@ -3781,10 +4659,14 @@
       <c r="D208" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E208">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B209" s="1">
         <v>1548</v>
@@ -3795,41 +4677,53 @@
       <c r="D209" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E209">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B210" s="1">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C210" s="1">
         <v>35</v>
       </c>
       <c r="D210" s="1">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1425</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B211" s="1">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C211" s="1">
         <v>35</v>
       </c>
       <c r="D211" s="1">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1430</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B212" s="1">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C212" s="1">
         <v>35</v>
@@ -3837,13 +4731,17 @@
       <c r="D212" s="1">
         <v>1430</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B213" s="1">
-        <v>1553</v>
+        <v>1651</v>
       </c>
       <c r="C213" s="1">
         <v>35</v>
@@ -3851,69 +4749,89 @@
       <c r="D213" s="1">
         <v>1430</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B214" s="1">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="C214" s="1">
         <v>35</v>
       </c>
       <c r="D214" s="1">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1448</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B215" s="1">
-        <v>1657</v>
+        <v>1767</v>
       </c>
       <c r="C215" s="1">
         <v>35</v>
       </c>
       <c r="D215" s="1">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1456</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B216" s="1">
-        <v>1767</v>
+        <v>1817</v>
       </c>
       <c r="C216" s="1">
         <v>35</v>
       </c>
       <c r="D216" s="1">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1457</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B217" s="1">
-        <v>1817</v>
+        <v>1850</v>
       </c>
       <c r="C217" s="1">
         <v>35</v>
       </c>
       <c r="D217" s="1">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1460</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B218" s="1">
-        <v>1850</v>
+        <v>1882</v>
       </c>
       <c r="C218" s="1">
         <v>35</v>
@@ -3921,41 +4839,53 @@
       <c r="D218" s="1">
         <v>1460</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B219" s="1">
-        <v>1882</v>
+        <v>1948</v>
       </c>
       <c r="C219" s="1">
         <v>35</v>
       </c>
       <c r="D219" s="1">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1461</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B220" s="1">
-        <v>1948</v>
+        <v>1957</v>
       </c>
       <c r="C220" s="1">
         <v>35</v>
       </c>
       <c r="D220" s="1">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1465</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B221" s="1">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="C221" s="1">
         <v>35</v>
@@ -3963,41 +4893,53 @@
       <c r="D221" s="1">
         <v>1465</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B222" s="1">
-        <v>1976</v>
+        <v>1985</v>
       </c>
       <c r="C222" s="1">
         <v>35</v>
       </c>
       <c r="D222" s="1">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1468</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B223" s="1">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="C223" s="1">
         <v>35</v>
       </c>
       <c r="D223" s="1">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1472</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B224" s="1">
-        <v>2001</v>
+        <v>2050</v>
       </c>
       <c r="C224" s="1">
         <v>35</v>
@@ -4005,13 +4947,17 @@
       <c r="D224" s="1">
         <v>1472</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B225" s="1">
-        <v>2050</v>
+        <v>2064</v>
       </c>
       <c r="C225" s="1">
         <v>35</v>
@@ -4019,55 +4965,71 @@
       <c r="D225" s="1">
         <v>1472</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B226" s="1">
-        <v>2064</v>
+        <v>2091</v>
       </c>
       <c r="C226" s="1">
         <v>35</v>
       </c>
       <c r="D226" s="1">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1480</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B227" s="1">
-        <v>2091</v>
+        <v>2140</v>
       </c>
       <c r="C227" s="1">
         <v>35</v>
       </c>
       <c r="D227" s="1">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1528</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B228" s="1">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="C228" s="1">
         <v>35</v>
       </c>
       <c r="D228" s="1">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1529</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B229" s="1">
-        <v>2142</v>
+        <v>2195</v>
       </c>
       <c r="C229" s="1">
         <v>35</v>
@@ -4075,97 +5037,125 @@
       <c r="D229" s="1">
         <v>1529</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B230" s="1">
-        <v>2195</v>
+        <v>2228</v>
       </c>
       <c r="C230" s="1">
         <v>35</v>
       </c>
       <c r="D230" s="1">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1532</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="3"/>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B231" s="1">
-        <v>2228</v>
+        <v>2269</v>
       </c>
       <c r="C231" s="1">
         <v>35</v>
       </c>
       <c r="D231" s="1">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1541</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="3"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B232" s="1">
-        <v>2269</v>
+        <v>2311</v>
       </c>
       <c r="C232" s="1">
         <v>35</v>
       </c>
       <c r="D232" s="1">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1573</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B233" s="1">
-        <v>2311</v>
+        <v>2329</v>
       </c>
       <c r="C233" s="1">
         <v>35</v>
       </c>
       <c r="D233" s="1">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1574</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B234" s="1">
-        <v>2329</v>
+        <v>2347</v>
       </c>
       <c r="C234" s="1">
         <v>35</v>
       </c>
       <c r="D234" s="1">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1605</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="3"/>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B235" s="1">
-        <v>2347</v>
+        <v>2362</v>
       </c>
       <c r="C235" s="1">
         <v>35</v>
       </c>
       <c r="D235" s="1">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1627</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B236" s="1">
-        <v>2362</v>
+        <v>2368</v>
       </c>
       <c r="C236" s="1">
         <v>35</v>
@@ -4173,69 +5163,89 @@
       <c r="D236" s="1">
         <v>1627</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E236">
+        <f t="shared" si="3"/>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B237" s="1">
-        <v>2368</v>
+        <v>2383</v>
       </c>
       <c r="C237" s="1">
         <v>35</v>
       </c>
       <c r="D237" s="1">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1702</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="3"/>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B238" s="1">
-        <v>2383</v>
+        <v>2392</v>
       </c>
       <c r="C238" s="1">
         <v>35</v>
       </c>
       <c r="D238" s="1">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1717</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B239" s="1">
-        <v>2392</v>
+        <v>2403</v>
       </c>
       <c r="C239" s="1">
         <v>35</v>
       </c>
       <c r="D239" s="1">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1760</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="3"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B240" s="1">
-        <v>2403</v>
+        <v>2412</v>
       </c>
       <c r="C240" s="1">
         <v>35</v>
       </c>
       <c r="D240" s="1">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1804</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="3"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B241" s="1">
-        <v>2412</v>
+        <v>2421</v>
       </c>
       <c r="C241" s="1">
         <v>35</v>
@@ -4243,52 +5253,68 @@
       <c r="D241" s="1">
         <v>1804</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E241">
+        <f t="shared" si="3"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B242" s="1">
-        <v>2421</v>
+        <v>2426</v>
       </c>
       <c r="C242" s="1">
         <v>35</v>
       </c>
       <c r="D242" s="1">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1839</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="3"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B243" s="1">
-        <v>2426</v>
+        <v>2432</v>
       </c>
       <c r="C243" s="1">
         <v>35</v>
       </c>
       <c r="D243" s="1">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1844</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="3"/>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B244" s="1">
-        <v>2432</v>
+        <v>2448</v>
       </c>
       <c r="C244" s="1">
         <v>35</v>
       </c>
       <c r="D244" s="1">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1876</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="3"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B245" s="1">
         <v>2448</v>
@@ -4299,27 +5325,35 @@
       <c r="D245" s="1">
         <v>1876</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245">
+        <f t="shared" si="3"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B246" s="1">
-        <v>2448</v>
+        <v>2475</v>
       </c>
       <c r="C246" s="1">
         <v>35</v>
       </c>
       <c r="D246" s="1">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1898</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="3"/>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B247" s="1">
-        <v>2475</v>
+        <v>2482</v>
       </c>
       <c r="C247" s="1">
         <v>35</v>
@@ -4327,27 +5361,35 @@
       <c r="D247" s="1">
         <v>1898</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E247">
+        <f t="shared" si="3"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B248" s="1">
-        <v>2482</v>
+        <v>2488</v>
       </c>
       <c r="C248" s="1">
         <v>35</v>
       </c>
       <c r="D248" s="1">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1920</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="3"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B249" s="1">
-        <v>2488</v>
+        <v>2494</v>
       </c>
       <c r="C249" s="1">
         <v>35</v>
@@ -4355,13 +5397,17 @@
       <c r="D249" s="1">
         <v>1920</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E249">
+        <f t="shared" si="3"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B250" s="1">
-        <v>2494</v>
+        <v>2501</v>
       </c>
       <c r="C250" s="1">
         <v>35</v>
@@ -4369,13 +5415,17 @@
       <c r="D250" s="1">
         <v>1920</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E250">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B251" s="1">
-        <v>2501</v>
+        <v>2512</v>
       </c>
       <c r="C251" s="1">
         <v>35</v>
@@ -4383,13 +5433,17 @@
       <c r="D251" s="1">
         <v>1920</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E251">
+        <f t="shared" si="3"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B252" s="1">
-        <v>2512</v>
+        <v>2524</v>
       </c>
       <c r="C252" s="1">
         <v>35</v>
@@ -4397,27 +5451,35 @@
       <c r="D252" s="1">
         <v>1920</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E252">
+        <f t="shared" si="3"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B253" s="1">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="C253" s="1">
         <v>35</v>
       </c>
       <c r="D253" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2004</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="3"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B254" s="1">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="C254" s="1">
         <v>35</v>
@@ -4425,41 +5487,53 @@
       <c r="D254" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E254">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B255" s="1">
-        <v>2529</v>
+        <v>2533</v>
       </c>
       <c r="C255" s="1">
         <v>35</v>
       </c>
       <c r="D255" s="1">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2048</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B256" s="1">
-        <v>2533</v>
+        <v>2550</v>
       </c>
       <c r="C256" s="1">
         <v>35</v>
       </c>
       <c r="D256" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2086</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B257" s="1">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="C257" s="1">
         <v>35</v>
@@ -4467,13 +5541,17 @@
       <c r="D257" s="1">
         <v>2086</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E257">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B258" s="1">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="C258" s="1">
         <v>35</v>
@@ -4481,55 +5559,71 @@
       <c r="D258" s="1">
         <v>2086</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E258">
+        <f t="shared" ref="E258:E321" si="4">B258-C258-D258</f>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B259" s="1">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="C259" s="1">
         <v>35</v>
       </c>
       <c r="D259" s="1">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2115</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="4"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B260" s="1">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="C260" s="1">
         <v>35</v>
       </c>
       <c r="D260" s="1">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2158</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="4"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B261" s="1">
-        <v>2560</v>
+        <v>2567</v>
       </c>
       <c r="C261" s="1">
         <v>35</v>
       </c>
       <c r="D261" s="1">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2198</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="4"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B262" s="1">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="C262" s="1">
         <v>35</v>
@@ -4537,13 +5631,17 @@
       <c r="D262" s="1">
         <v>2198</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262">
+        <f t="shared" si="4"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B263" s="1">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="C263" s="1">
         <v>35</v>
@@ -4551,13 +5649,17 @@
       <c r="D263" s="1">
         <v>2198</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E263">
+        <f t="shared" si="4"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B264" s="1">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="C264" s="1">
         <v>35</v>
@@ -4565,10 +5667,14 @@
       <c r="D264" s="1">
         <v>2198</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E264">
+        <f t="shared" si="4"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B265" s="1">
         <v>2572</v>
@@ -4579,24 +5685,32 @@
       <c r="D265" s="1">
         <v>2198</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E265">
+        <f t="shared" si="4"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B266" s="1">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="C266" s="1">
         <v>35</v>
       </c>
       <c r="D266" s="1">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2233</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B267" s="1">
         <v>2575</v>
@@ -4605,29 +5719,37 @@
         <v>35</v>
       </c>
       <c r="D267" s="1">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2246</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B268" s="1">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="C268" s="1">
         <v>35</v>
       </c>
       <c r="D268" s="1">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2265</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B269" s="1">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="C269" s="1">
         <v>35</v>
@@ -4635,13 +5757,17 @@
       <c r="D269" s="1">
         <v>2265</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E269">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B270" s="1">
-        <v>2579</v>
+        <v>2586</v>
       </c>
       <c r="C270" s="1">
         <v>35</v>
@@ -4649,10 +5775,14 @@
       <c r="D270" s="1">
         <v>2265</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E270">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B271" s="1">
         <v>2586</v>
@@ -4661,15 +5791,19 @@
         <v>35</v>
       </c>
       <c r="D271" s="1">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2308</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B272" s="1">
-        <v>2586</v>
+        <v>2591</v>
       </c>
       <c r="C272" s="1">
         <v>35</v>
@@ -4677,13 +5811,17 @@
       <c r="D272" s="1">
         <v>2308</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E272">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B273" s="1">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="C273" s="1">
         <v>35</v>
@@ -4691,10 +5829,14 @@
       <c r="D273" s="1">
         <v>2308</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E273">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B274" s="1">
         <v>2594</v>
@@ -4703,15 +5845,19 @@
         <v>35</v>
       </c>
       <c r="D274" s="1">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2359</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B275" s="1">
-        <v>2594</v>
+        <v>2603</v>
       </c>
       <c r="C275" s="1">
         <v>35</v>
@@ -4719,13 +5865,17 @@
       <c r="D275" s="1">
         <v>2359</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E275">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B276" s="1">
-        <v>2603</v>
+        <v>2617</v>
       </c>
       <c r="C276" s="1">
         <v>35</v>
@@ -4733,27 +5883,35 @@
       <c r="D276" s="1">
         <v>2359</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E276">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B277" s="1">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="C277" s="1">
         <v>35</v>
       </c>
       <c r="D277" s="1">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2383</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B278" s="1">
-        <v>2620</v>
+        <v>2626</v>
       </c>
       <c r="C278" s="1">
         <v>35</v>
@@ -4761,13 +5919,17 @@
       <c r="D278" s="1">
         <v>2383</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B279" s="1">
-        <v>2626</v>
+        <v>2631</v>
       </c>
       <c r="C279" s="1">
         <v>35</v>
@@ -4775,55 +5937,71 @@
       <c r="D279" s="1">
         <v>2383</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E279">
+        <f t="shared" si="4"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B280" s="1">
-        <v>2631</v>
+        <v>2637</v>
       </c>
       <c r="C280" s="1">
         <v>35</v>
       </c>
       <c r="D280" s="1">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2416</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B281" s="1">
-        <v>2637</v>
+        <v>2648</v>
       </c>
       <c r="C281" s="1">
         <v>35</v>
       </c>
       <c r="D281" s="1">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2422</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="4"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B282" s="1">
-        <v>2648</v>
+        <v>2659</v>
       </c>
       <c r="C282" s="1">
         <v>35</v>
       </c>
       <c r="D282" s="1">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2429</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B283" s="1">
-        <v>2659</v>
+        <v>2668</v>
       </c>
       <c r="C283" s="1">
         <v>35</v>
@@ -4831,13 +6009,17 @@
       <c r="D283" s="1">
         <v>2429</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E283">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B284" s="1">
-        <v>2668</v>
+        <v>2683</v>
       </c>
       <c r="C284" s="1">
         <v>35</v>
@@ -4845,13 +6027,17 @@
       <c r="D284" s="1">
         <v>2429</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E284">
+        <f t="shared" si="4"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B285" s="1">
-        <v>2683</v>
+        <v>2692</v>
       </c>
       <c r="C285" s="1">
         <v>35</v>
@@ -4859,13 +6045,17 @@
       <c r="D285" s="1">
         <v>2429</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E285">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B286" s="1">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="C286" s="1">
         <v>35</v>
@@ -4873,27 +6063,35 @@
       <c r="D286" s="1">
         <v>2429</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E286">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B287" s="1">
-        <v>2693</v>
+        <v>2705</v>
       </c>
       <c r="C287" s="1">
         <v>35</v>
       </c>
       <c r="D287" s="1">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2445</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B288" s="1">
-        <v>2705</v>
+        <v>2714</v>
       </c>
       <c r="C288" s="1">
         <v>35</v>
@@ -4901,13 +6099,17 @@
       <c r="D288" s="1">
         <v>2445</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E288">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B289" s="1">
-        <v>2714</v>
+        <v>2733</v>
       </c>
       <c r="C289" s="1">
         <v>35</v>
@@ -4915,13 +6117,17 @@
       <c r="D289" s="1">
         <v>2445</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E289">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B290" s="1">
-        <v>2733</v>
+        <v>2758</v>
       </c>
       <c r="C290" s="1">
         <v>35</v>
@@ -4929,13 +6135,17 @@
       <c r="D290" s="1">
         <v>2445</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E290">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B291" s="1">
-        <v>2758</v>
+        <v>2772</v>
       </c>
       <c r="C291" s="1">
         <v>35</v>
@@ -4943,27 +6153,35 @@
       <c r="D291" s="1">
         <v>2445</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E291">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B292" s="1">
-        <v>2772</v>
+        <v>2781</v>
       </c>
       <c r="C292" s="1">
         <v>35</v>
       </c>
       <c r="D292" s="1">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2475</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B293" s="1">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="C293" s="1">
         <v>35</v>
@@ -4971,13 +6189,17 @@
       <c r="D293" s="1">
         <v>2475</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E293">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B294" s="1">
-        <v>2785</v>
+        <v>2791</v>
       </c>
       <c r="C294" s="1">
         <v>35</v>
@@ -4985,27 +6207,35 @@
       <c r="D294" s="1">
         <v>2475</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B295" s="1">
-        <v>2791</v>
+        <v>2800</v>
       </c>
       <c r="C295" s="1">
         <v>35</v>
       </c>
       <c r="D295" s="1">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2490</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B296" s="1">
-        <v>2800</v>
+        <v>2812</v>
       </c>
       <c r="C296" s="1">
         <v>35</v>
@@ -5013,13 +6243,17 @@
       <c r="D296" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E296">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B297" s="1">
-        <v>2812</v>
+        <v>2824</v>
       </c>
       <c r="C297" s="1">
         <v>35</v>
@@ -5027,13 +6261,17 @@
       <c r="D297" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E297">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B298" s="1">
-        <v>2824</v>
+        <v>2830</v>
       </c>
       <c r="C298" s="1">
         <v>35</v>
@@ -5041,13 +6279,17 @@
       <c r="D298" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E298">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B299" s="1">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="C299" s="1">
         <v>35</v>
@@ -5055,27 +6297,35 @@
       <c r="D299" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E299">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B300" s="1">
-        <v>2833</v>
+        <v>2843</v>
       </c>
       <c r="C300" s="1">
         <v>35</v>
       </c>
       <c r="D300" s="1">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2516</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B301" s="1">
-        <v>2843</v>
+        <v>2852</v>
       </c>
       <c r="C301" s="1">
         <v>35</v>
@@ -5083,13 +6333,17 @@
       <c r="D301" s="1">
         <v>2516</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E301">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B302" s="1">
-        <v>2852</v>
+        <v>2857</v>
       </c>
       <c r="C302" s="1">
         <v>35</v>
@@ -5097,13 +6351,17 @@
       <c r="D302" s="1">
         <v>2516</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E302">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B303" s="1">
-        <v>2857</v>
+        <v>2865</v>
       </c>
       <c r="C303" s="1">
         <v>35</v>
@@ -5111,13 +6369,17 @@
       <c r="D303" s="1">
         <v>2516</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E303">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B304" s="1">
-        <v>2865</v>
+        <v>2910</v>
       </c>
       <c r="C304" s="1">
         <v>35</v>
@@ -5125,13 +6387,17 @@
       <c r="D304" s="1">
         <v>2516</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E304">
+        <f t="shared" si="4"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B305" s="1">
-        <v>2910</v>
+        <v>2928</v>
       </c>
       <c r="C305" s="1">
         <v>35</v>
@@ -5139,55 +6405,71 @@
       <c r="D305" s="1">
         <v>2516</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E305">
+        <f t="shared" si="4"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B306" s="1">
-        <v>2928</v>
+        <v>2942</v>
       </c>
       <c r="C306" s="1">
         <v>35</v>
       </c>
       <c r="D306" s="1">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2548</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="4"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B307" s="1">
-        <v>2942</v>
+        <v>2962</v>
       </c>
       <c r="C307" s="1">
         <v>35</v>
       </c>
       <c r="D307" s="1">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2549</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B308" s="1">
-        <v>2962</v>
+        <v>2985</v>
       </c>
       <c r="C308" s="1">
         <v>35</v>
       </c>
       <c r="D308" s="1">
-        <v>2549</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2560</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B309" s="1">
-        <v>2985</v>
+        <v>2995</v>
       </c>
       <c r="C309" s="1">
         <v>35</v>
@@ -5195,13 +6477,17 @@
       <c r="D309" s="1">
         <v>2560</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E309">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B310" s="1">
-        <v>2995</v>
+        <v>3030</v>
       </c>
       <c r="C310" s="1">
         <v>35</v>
@@ -5209,13 +6495,17 @@
       <c r="D310" s="1">
         <v>2560</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E310">
+        <f t="shared" si="4"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B311" s="1">
-        <v>3030</v>
+        <v>3090</v>
       </c>
       <c r="C311" s="1">
         <v>35</v>
@@ -5223,13 +6513,17 @@
       <c r="D311" s="1">
         <v>2560</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311">
+        <f t="shared" si="4"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B312" s="1">
-        <v>3090</v>
+        <v>3137</v>
       </c>
       <c r="C312" s="1">
         <v>35</v>
@@ -5237,27 +6531,35 @@
       <c r="D312" s="1">
         <v>2560</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E312">
+        <f t="shared" si="4"/>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B313" s="1">
-        <v>3137</v>
+        <v>3245</v>
       </c>
       <c r="C313" s="1">
         <v>35</v>
       </c>
       <c r="D313" s="1">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2602</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="4"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B314" s="1">
-        <v>3245</v>
+        <v>3412</v>
       </c>
       <c r="C314" s="1">
         <v>35</v>
@@ -5265,27 +6567,35 @@
       <c r="D314" s="1">
         <v>2602</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E314">
+        <f t="shared" si="4"/>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B315" s="1">
-        <v>3412</v>
+        <v>3489</v>
       </c>
       <c r="C315" s="1">
         <v>35</v>
       </c>
       <c r="D315" s="1">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2618</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="4"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B316" s="1">
-        <v>3489</v>
+        <v>3571</v>
       </c>
       <c r="C316" s="1">
         <v>35</v>
@@ -5293,41 +6603,53 @@
       <c r="D316" s="1">
         <v>2618</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E316">
+        <f t="shared" si="4"/>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B317" s="1">
-        <v>3571</v>
+        <v>3658</v>
       </c>
       <c r="C317" s="1">
         <v>35</v>
       </c>
       <c r="D317" s="1">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2636</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="4"/>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B318" s="1">
-        <v>3658</v>
+        <v>3740</v>
       </c>
       <c r="C318" s="1">
         <v>35</v>
       </c>
       <c r="D318" s="1">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2657</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="4"/>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B319" s="1">
-        <v>3740</v>
+        <v>3816</v>
       </c>
       <c r="C319" s="1">
         <v>35</v>
@@ -5335,41 +6657,53 @@
       <c r="D319" s="1">
         <v>2657</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E319">
+        <f t="shared" si="4"/>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B320" s="1">
-        <v>3816</v>
+        <v>4112</v>
       </c>
       <c r="C320" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D320" s="1">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2668</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="4"/>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B321" s="1">
-        <v>4112</v>
+        <v>4212</v>
       </c>
       <c r="C321" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D321" s="1">
         <v>2668</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E321">
+        <f t="shared" si="4"/>
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B322" s="1">
-        <v>4212</v>
+        <v>4359</v>
       </c>
       <c r="C322" s="1">
         <v>37</v>
@@ -5377,27 +6711,35 @@
       <c r="D322" s="1">
         <v>2668</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E322">
+        <f t="shared" ref="E322:E336" si="5">B322-C322-D322</f>
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B323" s="1">
-        <v>4359</v>
+        <v>4512</v>
       </c>
       <c r="C323" s="1">
         <v>37</v>
       </c>
       <c r="D323" s="1">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2687</v>
+      </c>
+      <c r="E323">
+        <f t="shared" si="5"/>
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B324" s="1">
-        <v>4512</v>
+        <v>4720</v>
       </c>
       <c r="C324" s="1">
         <v>37</v>
@@ -5405,83 +6747,107 @@
       <c r="D324" s="1">
         <v>2687</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E324">
+        <f t="shared" si="5"/>
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B325" s="1">
-        <v>4720</v>
+        <v>4809</v>
       </c>
       <c r="C325" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D325" s="1">
         <v>2687</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E325">
+        <f t="shared" si="5"/>
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B326" s="1">
-        <v>4809</v>
+        <v>4941</v>
       </c>
       <c r="C326" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D326" s="1">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2689</v>
+      </c>
+      <c r="E326">
+        <f t="shared" si="5"/>
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B327" s="1">
-        <v>4941</v>
+        <v>5119</v>
       </c>
       <c r="C327" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D327" s="1">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2721</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="5"/>
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B328" s="1">
-        <v>5119</v>
+        <v>5275</v>
       </c>
       <c r="C328" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D328" s="1">
         <v>2721</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E328">
+        <f t="shared" si="5"/>
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B329" s="1">
-        <v>5275</v>
+        <v>5404</v>
       </c>
       <c r="C329" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D329" s="1">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2794</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="5"/>
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B330" s="1">
-        <v>5404</v>
+        <v>5931</v>
       </c>
       <c r="C330" s="1">
         <v>44</v>
@@ -5489,55 +6855,71 @@
       <c r="D330" s="1">
         <v>2794</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E330">
+        <f t="shared" si="5"/>
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B331" s="1">
-        <v>5931</v>
+        <v>6086</v>
       </c>
       <c r="C331" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D331" s="1">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2853</v>
+      </c>
+      <c r="E331">
+        <f t="shared" si="5"/>
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B332" s="1">
-        <v>6086</v>
+        <v>6356</v>
       </c>
       <c r="C332" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D332" s="1">
         <v>2853</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E332">
+        <f t="shared" si="5"/>
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B333" s="1">
-        <v>6356</v>
+        <v>6396</v>
       </c>
       <c r="C333" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D333" s="1">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2896</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="5"/>
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B334" s="1">
-        <v>6396</v>
+        <v>6908</v>
       </c>
       <c r="C334" s="1">
         <v>47</v>
@@ -5545,53 +6927,48 @@
       <c r="D334" s="1">
         <v>2896</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E334">
+        <f t="shared" si="5"/>
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B335" s="1">
-        <v>6908</v>
+        <v>7107</v>
       </c>
       <c r="C335" s="1">
         <v>47</v>
       </c>
       <c r="D335" s="1">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2950</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="5"/>
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B336" s="1">
-        <v>7107</v>
+        <v>7432</v>
       </c>
       <c r="C336" s="1">
         <v>47</v>
       </c>
       <c r="D336" s="1">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A337" s="2">
-        <v>44347</v>
-      </c>
-      <c r="B337" s="1">
-        <v>7432</v>
-      </c>
-      <c r="C337" s="1">
-        <v>47</v>
-      </c>
-      <c r="D337" s="1">
         <v>3029</v>
       </c>
+      <c r="E336">
+        <f t="shared" si="5"/>
+        <v>4356</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A186:D186"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
